--- a/target/classes/Excel_Files/ids.xlsx
+++ b/target/classes/Excel_Files/ids.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">eduid1</t>
   </si>
   <si>
     <t xml:space="preserve">LegacyInsideStage1499326371262@qaittest.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">df</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fddf</t>
   </si>
 </sst>
 </file>
@@ -40,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -121,15 +128,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -138,6 +145,14 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/Excel_Files/ids.xlsx
+++ b/target/classes/Excel_Files/ids.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="978" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">eduid1</t>
   </si>
   <si>
     <t xml:space="preserve">LegacyInsideStage1499326371262@qaittest.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">df</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fddf</t>
   </si>
 </sst>
 </file>
@@ -128,16 +122,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -145,14 +136,6 @@
       </c>
       <c r="B1" s="0" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
